--- a/topic-02-Data-Mining-Process/book/archives/cleaning.xlsx
+++ b/topic-02-Data-Mining-Process/book/archives/cleaning.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Analytics\analytics-2018\topic-02-Data-Discovery\book-b\archives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Analytics\Business-Analytics-i-2017\topic-02-Data-Mining-Process\book\archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA60416-BCA7-4A39-83A1-EFA475C6D822}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="3" xr2:uid="{74C9869E-62C4-4AA1-A639-95A31BA4F26D}"/>
   </bookViews>
@@ -17,17 +18,22 @@
     <sheet name="Substitute" sheetId="3" r:id="rId3"/>
     <sheet name="Value" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Product</t>
   </si>
@@ -144,6 +150,18 @@
   </si>
   <si>
     <t>Using Text To Columns</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -345,55 +363,6 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -436,11 +405,60 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,10 +474,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58080CFE-F4B0-4FFB-A3F4-24B5A55B8E75}" name="Table1" displayName="Table1" ref="B3:B10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58080CFE-F4B0-4FFB-A3F4-24B5A55B8E75}" name="Table1" displayName="Table1" ref="B3:B10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="1" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B3:B10" xr:uid="{4400160A-4B86-46B6-B1E2-3CB0DEC8E64C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{410BDEBD-490C-430B-9B16-6EDDFB06A1E7}" name="Product" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{410BDEBD-490C-430B-9B16-6EDDFB06A1E7}" name="Product" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1110,7 +1128,7 @@
   <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,44 +1143,44 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
-        <v>2</v>
+      <c r="B4" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>3</v>
+      <c r="B5" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>5</v>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>3</v>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
-        <v>10</v>
+      <c r="B8" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>5</v>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>10</v>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>SUM(B4:B10)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
